--- a/scene_cat_exp_2023.2.2_english/input_files/39_scenecat_memory_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/39_scenecat_memory_kitchens_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>284</v>
+        <v>446</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -512,38 +512,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_ensho.png</t>
+          <t>stimuli/img_as3da.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>72.7948717948718</v>
+        <v>84.53125</v>
       </c>
       <c r="N2">
-        <v>54.56410256410256</v>
+        <v>63</v>
       </c>
       <c r="O2">
-        <v>63.67948717948718</v>
+        <v>73.765625</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_h1yyu.png</t>
+          <t>stimuli/img_hfz8w.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>64.85294117647059</v>
+        <v>55.46153846153846</v>
       </c>
       <c r="N3">
-        <v>46.61764705882353</v>
+        <v>27.28205128205128</v>
       </c>
       <c r="O3">
-        <v>55.73529411764706</v>
+        <v>41.37179487179487</v>
       </c>
       <c r="P3">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>286</v>
+        <v>448</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -654,50 +654,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_qbkdt.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>69.45714285714286</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N4">
-        <v>50.02857142857143</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O4">
-        <v>59.74285714285715</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P4">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -743,38 +748,38 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_k3abb.png</t>
+          <t>stimuli/img_fhm45.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>35.54054054054054</v>
+        <v>76.75</v>
       </c>
       <c r="N5">
-        <v>16.54054054054054</v>
+        <v>57.71875</v>
       </c>
       <c r="O5">
-        <v>26.04054054054054</v>
+        <v>67.234375</v>
       </c>
       <c r="P5">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>288</v>
+        <v>450</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -808,37 +813,32 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
+          <t>stimuli/img_0j24m.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>64.25925925925925</v>
+        <v>63.6969696969697</v>
       </c>
       <c r="N6">
-        <v>40.92592592592592</v>
+        <v>35.75757575757576</v>
       </c>
       <c r="O6">
-        <v>52.59259259259259</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="P6">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>289</v>
+        <v>451</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -890,40 +890,35 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_57os5.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>84</v>
+        <v>82.70588235294117</v>
       </c>
       <c r="N7">
-        <v>65.88235294117646</v>
+        <v>65.73529411764706</v>
       </c>
       <c r="O7">
-        <v>74.94117647058823</v>
+        <v>74.22058823529412</v>
       </c>
       <c r="P7">
         <v>34</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R7">
         <v>9</v>
@@ -960,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>290</v>
+        <v>452</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -972,50 +967,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_z5osu.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>71.42857142857143</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N8">
-        <v>47.34285714285714</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O8">
-        <v>59.38571428571429</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>291</v>
+        <v>453</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1066,38 +1066,38 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_cv9qj.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>90.14285714285714</v>
+        <v>60.34375</v>
       </c>
       <c r="N9">
-        <v>75.22857142857143</v>
+        <v>35.34375</v>
       </c>
       <c r="O9">
-        <v>82.68571428571428</v>
+        <v>47.84375</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1119,7 +1119,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1143,38 +1143,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_uspja.png</t>
+          <t>stimuli/img_oz18d.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>54.90909090909091</v>
+        <v>78.93939393939394</v>
       </c>
       <c r="N10">
-        <v>29.12121212121212</v>
+        <v>61.03030303030303</v>
       </c>
       <c r="O10">
-        <v>42.01515151515152</v>
+        <v>69.98484848484848</v>
       </c>
       <c r="P10">
         <v>33</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1196,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>293</v>
+        <v>455</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1208,50 +1208,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_01w8b.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>78.91891891891892</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N11">
-        <v>61.21621621621622</v>
+        <v>50</v>
       </c>
       <c r="O11">
-        <v>70.06756756756756</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P11">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1273,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>294</v>
+        <v>456</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1297,38 +1302,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_0j24m.png</t>
+          <t>stimuli/img_h1yyu.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>63.6969696969697</v>
+        <v>64.85294117647059</v>
       </c>
       <c r="N12">
-        <v>35.75757575757576</v>
+        <v>46.61764705882353</v>
       </c>
       <c r="O12">
-        <v>49.72727272727273</v>
+        <v>55.73529411764706</v>
       </c>
       <c r="P12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1350,7 +1355,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>295</v>
+        <v>457</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1374,38 +1379,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_t1cr9.png</t>
+          <t>stimuli/img_8fpog.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>73.66666666666667</v>
+        <v>85.41666666666667</v>
       </c>
       <c r="N13">
-        <v>53.51515151515152</v>
+        <v>72.30555555555556</v>
       </c>
       <c r="O13">
-        <v>63.59090909090909</v>
+        <v>78.86111111111111</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V13">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1427,7 +1432,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>296</v>
+        <v>458</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1451,38 +1456,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_8fpog.png</t>
+          <t>stimuli/img_l9t30.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>85.41666666666667</v>
+        <v>67.2</v>
       </c>
       <c r="N14">
-        <v>72.30555555555556</v>
+        <v>43.14285714285715</v>
       </c>
       <c r="O14">
-        <v>78.86111111111111</v>
+        <v>55.17142857142858</v>
       </c>
       <c r="P14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1504,7 +1509,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>297</v>
+        <v>459</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1533,38 +1538,38 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_s9are.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>81.40625</v>
+        <v>90.14285714285714</v>
       </c>
       <c r="N15">
-        <v>61.4375</v>
+        <v>75.22857142857143</v>
       </c>
       <c r="O15">
-        <v>71.421875</v>
+        <v>82.68571428571428</v>
       </c>
       <c r="P15">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1586,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>298</v>
+        <v>460</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1598,50 +1603,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_hfz8w.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>55.46153846153846</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N16">
-        <v>27.28205128205128</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O16">
-        <v>41.37179487179487</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P16">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1663,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>299</v>
+        <v>461</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1675,55 +1685,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_01w8b.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>82</v>
+        <v>78.91891891891892</v>
       </c>
       <c r="N17">
-        <v>62.23333333333333</v>
+        <v>61.21621621621622</v>
       </c>
       <c r="O17">
-        <v>72.11666666666667</v>
+        <v>70.06756756756756</v>
       </c>
       <c r="P17">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V17">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1745,7 +1750,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>300</v>
+        <v>462</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1757,50 +1762,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_faly8.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>33.41176470588236</v>
+        <v>81.40625</v>
       </c>
       <c r="N18">
-        <v>19.23529411764706</v>
+        <v>61.4375</v>
       </c>
       <c r="O18">
-        <v>26.32352941176471</v>
+        <v>71.421875</v>
       </c>
       <c r="P18">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1822,7 +1832,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>301</v>
+        <v>463</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1834,50 +1844,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_l9t30.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>67.2</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N19">
-        <v>43.14285714285715</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O19">
-        <v>55.17142857142858</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P19">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>302</v>
+        <v>464</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1911,50 +1926,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_fhm45.png</t>
+          <t>stimuli/img_i2k07.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>76.75</v>
+        <v>64.25925925925925</v>
       </c>
       <c r="N20">
-        <v>57.71875</v>
+        <v>40.92592592592592</v>
       </c>
       <c r="O20">
-        <v>67.234375</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="P20">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V20">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1976,7 +1996,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>303</v>
+        <v>465</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2005,38 +2025,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>78.59375</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N21">
-        <v>57.84375</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O21">
-        <v>68.21875</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -2058,7 +2078,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>304</v>
+        <v>466</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2087,38 +2107,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>56.26470588235294</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N22">
-        <v>34.26470588235294</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O22">
-        <v>45.26470588235294</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -2140,16 +2160,21 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>kitchens</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2159,8 +2184,38 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/catch_11.jpg</t>
-        </is>
+          <t>stimuli/img_t1cr9.png</t>
+        </is>
+      </c>
+      <c r="M23">
+        <v>73.66666666666667</v>
+      </c>
+      <c r="N23">
+        <v>53.51515151515152</v>
+      </c>
+      <c r="O23">
+        <v>63.59090909090909</v>
+      </c>
+      <c r="P23">
+        <v>33</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2237,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>306</v>
+        <v>468</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2194,55 +2249,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_ensho.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>69.28571428571429</v>
+        <v>72.7948717948718</v>
       </c>
       <c r="N24">
-        <v>47.35714285714285</v>
+        <v>54.56410256410256</v>
       </c>
       <c r="O24">
-        <v>58.32142857142857</v>
+        <v>63.67948717948718</v>
       </c>
       <c r="P24">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2264,7 +2314,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2276,32 +2326,37 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_57os5.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>82.70588235294117</v>
+        <v>82</v>
       </c>
       <c r="N25">
-        <v>65.73529411764706</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O25">
-        <v>74.22058823529412</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P25">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Q25">
         <v>9</v>
@@ -2341,7 +2396,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>308</v>
+        <v>470</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2370,38 +2425,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>64.81818181818181</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N26">
-        <v>42.36363636363637</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O26">
-        <v>53.59090909090909</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2423,7 +2478,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>309</v>
+        <v>471</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2452,38 +2507,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_ifebc.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>60.34375</v>
+        <v>84</v>
       </c>
       <c r="N27">
-        <v>35.34375</v>
+        <v>65.88235294117646</v>
       </c>
       <c r="O27">
-        <v>47.84375</v>
+        <v>74.94117647058823</v>
       </c>
       <c r="P27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -2505,7 +2560,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>310</v>
+        <v>472</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2517,55 +2572,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_qmand.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>11.03125</v>
+        <v>86.11764705882354</v>
       </c>
       <c r="N28">
-        <v>2.90625</v>
+        <v>71.02941176470588</v>
       </c>
       <c r="O28">
-        <v>6.96875</v>
+        <v>78.57352941176471</v>
       </c>
       <c r="P28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2587,7 +2637,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>311</v>
+        <v>473</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2611,38 +2661,38 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_oz18d.png</t>
+          <t>stimuli/img_faly8.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>78.93939393939394</v>
+        <v>33.41176470588236</v>
       </c>
       <c r="N29">
-        <v>61.03030303030303</v>
+        <v>19.23529411764706</v>
       </c>
       <c r="O29">
-        <v>69.98484848484848</v>
+        <v>26.32352941176471</v>
       </c>
       <c r="P29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2664,7 +2714,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>312</v>
+        <v>474</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2693,23 +2743,23 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>76.30555555555556</v>
+        <v>78.59375</v>
       </c>
       <c r="N30">
-        <v>55.33333333333334</v>
+        <v>57.84375</v>
       </c>
       <c r="O30">
-        <v>65.81944444444444</v>
+        <v>68.21875</v>
       </c>
       <c r="P30">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>7</v>
@@ -2746,21 +2796,16 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>313</v>
+        <v>475</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>kitchens</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2770,38 +2815,8 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_5949k.png</t>
-        </is>
-      </c>
-      <c r="M31">
-        <v>60.8</v>
-      </c>
-      <c r="N31">
-        <v>39.2</v>
-      </c>
-      <c r="O31">
-        <v>50</v>
-      </c>
-      <c r="P31">
-        <v>35</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-      <c r="R31">
-        <v>3</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
-        <v>3</v>
-      </c>
-      <c r="V31">
-        <v>3</v>
+          <t>stimuli/catch_28.jpg</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2823,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>314</v>
+        <v>476</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2835,55 +2850,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_uspja.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>86.25925925925925</v>
+        <v>54.90909090909091</v>
       </c>
       <c r="N32">
-        <v>66.25925925925925</v>
+        <v>29.12121212121212</v>
       </c>
       <c r="O32">
-        <v>76.25925925925925</v>
+        <v>42.01515151515152</v>
       </c>
       <c r="P32">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2905,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>315</v>
+        <v>477</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2917,37 +2927,32 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_z5osu.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>72.24242424242425</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="N33">
-        <v>50</v>
+        <v>47.34285714285714</v>
       </c>
       <c r="O33">
-        <v>61.12121212121212</v>
+        <v>59.38571428571429</v>
       </c>
       <c r="P33">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -2987,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2999,55 +3004,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_u9f9l.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>47.10344827586207</v>
+        <v>77.78571428571429</v>
       </c>
       <c r="N34">
-        <v>25.72413793103448</v>
+        <v>57.25</v>
       </c>
       <c r="O34">
-        <v>36.41379310344828</v>
+        <v>67.51785714285714</v>
       </c>
       <c r="P34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -3069,7 +3069,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>317</v>
+        <v>479</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3081,55 +3081,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_5949k.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>68.40000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="N35">
-        <v>45.62857142857143</v>
+        <v>39.2</v>
       </c>
       <c r="O35">
-        <v>57.01428571428572</v>
+        <v>50</v>
       </c>
       <c r="P35">
         <v>35</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -3151,7 +3146,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3233,7 +3228,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>319</v>
+        <v>481</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3245,50 +3240,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_qmand.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>86.11764705882354</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N37">
-        <v>71.02941176470588</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O37">
-        <v>78.57352941176471</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V37">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -3310,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>320</v>
+        <v>482</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3334,38 +3334,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_as3da.png</t>
+          <t>stimuli/img_k3abb.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>84.53125</v>
+        <v>35.54054054054054</v>
       </c>
       <c r="N38">
-        <v>63</v>
+        <v>16.54054054054054</v>
       </c>
       <c r="O38">
-        <v>73.765625</v>
+        <v>26.04054054054054</v>
       </c>
       <c r="P38">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3387,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>321</v>
+        <v>483</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3399,55 +3399,50 @@
           <t>kitchens</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_qbkdt.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>75.66666666666667</v>
+        <v>69.45714285714286</v>
       </c>
       <c r="N39">
-        <v>54.27272727272727</v>
+        <v>50.02857142857143</v>
       </c>
       <c r="O39">
-        <v>64.96969696969697</v>
+        <v>59.74285714285715</v>
       </c>
       <c r="P39">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V39">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -3469,7 +3464,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>322</v>
+        <v>484</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3498,38 +3493,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>78.88888888888889</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N40">
-        <v>59.30555555555556</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O40">
-        <v>69.09722222222223</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P40">
         <v>36</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V40">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3551,7 +3546,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>323</v>
+        <v>485</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3563,50 +3558,55 @@
           <t>kitchens</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_u9f9l.png</t>
+          <t>stimuli/img_84s7n.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>77.78571428571429</v>
+        <v>11.03125</v>
       </c>
       <c r="N41">
-        <v>57.25</v>
+        <v>2.90625</v>
       </c>
       <c r="O41">
-        <v>67.51785714285714</v>
+        <v>6.96875</v>
       </c>
       <c r="P41">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V41">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3628,7 +3628,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>324</v>
+        <v>486</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3657,38 +3657,38 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>72.79411764705883</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N42">
-        <v>51.64705882352941</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O42">
-        <v>62.22058823529412</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P42">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
